--- a/StructureDefinition-vp-patient.xlsx
+++ b/StructureDefinition-vp-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T20:52:23+00:00</t>
+    <t>2022-07-15T14:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-patient.xlsx
+++ b/StructureDefinition-vp-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T14:52:55+00:00</t>
+    <t>2022-07-17T13:46:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-patient.xlsx
+++ b/StructureDefinition-vp-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T13:46:32+00:00</t>
+    <t>2022-07-17T16:09:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-patient.xlsx
+++ b/StructureDefinition-vp-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T16:09:40+00:00</t>
+    <t>2022-07-17T16:31:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-patient.xlsx
+++ b/StructureDefinition-vp-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T16:31:22+00:00</t>
+    <t>2022-07-17T19:03:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-patient.xlsx
+++ b/StructureDefinition-vp-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T19:03:56+00:00</t>
+    <t>2022-08-04T11:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-patient.xlsx
+++ b/StructureDefinition-vp-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T11:06:48+00:00</t>
+    <t>2022-08-04T13:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-patient.xlsx
+++ b/StructureDefinition-vp-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T13:09:21+00:00</t>
+    <t>2022-08-04T16:22:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-patient.xlsx
+++ b/StructureDefinition-vp-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T16:22:49+00:00</t>
+    <t>2022-08-04T21:23:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-patient.xlsx
+++ b/StructureDefinition-vp-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T21:23:28+00:00</t>
+    <t>2022-08-04T21:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-patient.xlsx
+++ b/StructureDefinition-vp-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T21:39:40+00:00</t>
+    <t>2022-08-04T22:05:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-patient.xlsx
+++ b/StructureDefinition-vp-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:05:52+00:00</t>
+    <t>2022-08-04T22:26:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-patient.xlsx
+++ b/StructureDefinition-vp-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:26:29+00:00</t>
+    <t>2022-08-04T22:36:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-patient.xlsx
+++ b/StructureDefinition-vp-patient.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$88</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3210" uniqueCount="533">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:36:48+00:00</t>
+    <t>2022-08-04T22:42:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,7 +260,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}vp-address-use-home-must-exist-invariant:At least one address has to be 'home' {address.where(use = 'home').exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -413,38 +416,72 @@
     <t>Patient.extension</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>keycloakUsername</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir-vaccination-pass.github.io/fhir-implementation-guide/StructureDefinition/vp-patient-keycloak-username-extension}
+</t>
+  </si>
+  <si>
+    <t>VPPatientKeycloakUsernameExtension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>isPregnant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir-vaccination-pass.github.io/fhir-implementation-guide/StructureDefinition/vp-patient-is-pregnant-extension}
+</t>
+  </si>
+  <si>
+    <t>VPPatientIsPregnantExtension</t>
+  </si>
+  <si>
+    <t>Patient.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Patient.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -534,6 +571,16 @@
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:use}
+</t>
+  </si>
+  <si>
+    <t>Slice based on name.use value. One slice with name.use = official must be present.</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -541,6 +588,210 @@
   </si>
   <si>
     <t>PID-5, PID-9</t>
+  </si>
+  <si>
+    <t>officialName</t>
+  </si>
+  <si>
+    <t>Patient.name.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Patient.name.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Patient.name.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>official</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>XPN.7, but often indicated by which field contains the name</t>
+  </si>
+  <si>
+    <t>Patient.name.text</t>
+  </si>
+  <si>
+    <t>Text representation of the full name</t>
+  </si>
+  <si>
+    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>HumanName.text</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>implied by XPN.11</t>
+  </si>
+  <si>
+    <t>Patient.name.family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname
+</t>
+  </si>
+  <si>
+    <t>Family name (often called 'Surname')</t>
+  </si>
+  <si>
+    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
+  </si>
+  <si>
+    <t>HumanName.family</t>
+  </si>
+  <si>
+    <t>./part[partType = FAM]</t>
+  </si>
+  <si>
+    <t>XPN.1/FN.1</t>
+  </si>
+  <si>
+    <t>Patient.name.given</t>
+  </si>
+  <si>
+    <t>first name
+middle name</t>
+  </si>
+  <si>
+    <t>Given names (not always 'first'). Includes middle names</t>
+  </si>
+  <si>
+    <t>Given name.</t>
+  </si>
+  <si>
+    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
+  </si>
+  <si>
+    <t>HumanName.given</t>
+  </si>
+  <si>
+    <t>./part[partType = GIV]</t>
+  </si>
+  <si>
+    <t>XPN.2 + XPN.3</t>
+  </si>
+  <si>
+    <t>Patient.name.prefix</t>
+  </si>
+  <si>
+    <t>Parts that come before the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.prefix</t>
+  </si>
+  <si>
+    <t>./part[partType = PFX]</t>
+  </si>
+  <si>
+    <t>XPN.5</t>
+  </si>
+  <si>
+    <t>Patient.name.suffix</t>
+  </si>
+  <si>
+    <t>Parts that come after the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.suffix</t>
+  </si>
+  <si>
+    <t>./part[partType = SFX]</t>
+  </si>
+  <si>
+    <t>XPN/4</t>
+  </si>
+  <si>
+    <t>Patient.name.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when name was/is in use</t>
+  </si>
+  <si>
+    <t>Indicates the period of time when this name was valid for the named person.</t>
+  </si>
+  <si>
+    <t>Allows names to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>HumanName.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>XPN.13 + XPN.14</t>
+  </si>
+  <si>
+    <t>@default</t>
   </si>
   <si>
     <t>Patient.telecom</t>
@@ -586,9 +837,6 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The gender of a person used for administrative purposes.</t>
   </si>
   <si>
@@ -686,6 +934,309 @@
   </si>
   <si>
     <t>PID-11</t>
+  </si>
+  <si>
+    <t>Patient.address.id</t>
+  </si>
+  <si>
+    <t>Patient.address.extension</t>
+  </si>
+  <si>
+    <t>Patient.address.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | billing - purpose of this address</t>
+  </si>
+  <si>
+    <t>The purpose of this address.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>XAD.7</t>
+  </si>
+  <si>
+    <t>Patient.address.type</t>
+  </si>
+  <si>
+    <t>postal | physical | both</t>
+  </si>
+  <si>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+  </si>
+  <si>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.type</t>
+  </si>
+  <si>
+    <t>XAD.18</t>
+  </si>
+  <si>
+    <t>Patient.address.text</t>
+  </si>
+  <si>
+    <t>Text representation of the address</t>
+  </si>
+  <si>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street, Erewhon 9132</t>
+  </si>
+  <si>
+    <t>Address.text</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
+  </si>
+  <si>
+    <t>Patient.address.line</t>
+  </si>
+  <si>
+    <t>Street name, number, direction &amp; P.O. Box etc.</t>
+  </si>
+  <si>
+    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street</t>
+  </si>
+  <si>
+    <t>Address.line</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = AL]</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
+  </si>
+  <si>
+    <t>Patient.address.city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municpality
+</t>
+  </si>
+  <si>
+    <t>Name of city, town etc.</t>
+  </si>
+  <si>
+    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
+  </si>
+  <si>
+    <t>Erewhon</t>
+  </si>
+  <si>
+    <t>Address.city</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CTY]</t>
+  </si>
+  <si>
+    <t>XAD.3</t>
+  </si>
+  <si>
+    <t>Patient.address.district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County
+</t>
+  </si>
+  <si>
+    <t>District name (aka county)</t>
+  </si>
+  <si>
+    <t>The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Address.district</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT | CPA]</t>
+  </si>
+  <si>
+    <t>XAD.9</t>
+  </si>
+  <si>
+    <t>Patient.address.state</t>
+  </si>
+  <si>
+    <t>Province
+Territory</t>
+  </si>
+  <si>
+    <t>Sub-unit of country (abbreviations ok)</t>
+  </si>
+  <si>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+  </si>
+  <si>
+    <t>Address.state</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = STA]</t>
+  </si>
+  <si>
+    <t>XAD.4</t>
+  </si>
+  <si>
+    <t>Patient.address.state.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Patient.address.state.extension</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir-vaccination-pass.github.io/fhir-implementation-guide/StructureDefinition/vp-state-code-extension}
+</t>
+  </si>
+  <si>
+    <t>VPStateCodeExtension</t>
+  </si>
+  <si>
+    <t>Patient.address.state.value</t>
+  </si>
+  <si>
+    <t>Primitive value for string</t>
+  </si>
+  <si>
+    <t>The actual value</t>
+  </si>
+  <si>
+    <t>1048576</t>
+  </si>
+  <si>
+    <t>string.value</t>
+  </si>
+  <si>
+    <t>Patient.address.postalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
+</t>
+  </si>
+  <si>
+    <t>Postal code for area</t>
+  </si>
+  <si>
+    <t>A postal code designating a region defined by the postal service.</t>
+  </si>
+  <si>
+    <t>9132</t>
+  </si>
+  <si>
+    <t>Address.postalCode</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = ZIP]</t>
+  </si>
+  <si>
+    <t>XAD.5</t>
+  </si>
+  <si>
+    <t>Patient.address.country</t>
+  </si>
+  <si>
+    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
+  </si>
+  <si>
+    <t>Country - a nation as commonly understood or generally accepted.</t>
+  </si>
+  <si>
+    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
+  </si>
+  <si>
+    <t>Address.country</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT]</t>
+  </si>
+  <si>
+    <t>XAD.6</t>
+  </si>
+  <si>
+    <t>Patient.address.country.id</t>
+  </si>
+  <si>
+    <t>Patient.address.country.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir-vaccination-pass.github.io/fhir-implementation-guide/StructureDefinition/vp-country-code-extension}
+</t>
+  </si>
+  <si>
+    <t>VPCountryCodeExtension</t>
+  </si>
+  <si>
+    <t>Patient.address.country.value</t>
+  </si>
+  <si>
+    <t>Patient.address.period</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use.</t>
+  </si>
+  <si>
+    <t>Allows addresses to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
+  &lt;start value="2010-03-23"/&gt;
+  &lt;end value="2010-07-01"/&gt;
+&lt;/valuePeriod&gt;</t>
+  </si>
+  <si>
+    <t>Address.period</t>
+  </si>
+  <si>
+    <t>XAD.12 / XAD.13 + XAD.14</t>
   </si>
   <si>
     <t>Patient.maritalStatus</t>
@@ -804,22 +1355,7 @@
     <t>Patient.contact.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Patient.contact.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Patient.contact.modifierExtension</t>
@@ -857,9 +1393,6 @@
     <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
     <t>NK1-7, NK1-3</t>
   </si>
   <si>
@@ -947,10 +1480,6 @@
   </si>
   <si>
     <t>Patient.contact.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>The period during which this contact person or organization is valid to be contacted relating to this patient</t>
@@ -1275,6 +1804,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1443,7 +1987,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN46"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1453,7 +1997,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.51953125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1479,7 +2023,7 @@
     <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="78.24609375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1490,7 +2034,7 @@
     <col min="36" max="36" width="156.828125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="40.8125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="39.37890625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.3984375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1616,7 +2160,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>9</v>
       </c>
@@ -1744,7 +2288,7 @@
         <v>84</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>77</v>
@@ -1842,7 +2386,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>91</v>
       </c>
@@ -1954,7 +2498,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>97</v>
       </c>
@@ -2068,7 +2612,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>103</v>
       </c>
@@ -2182,7 +2726,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>112</v>
       </c>
@@ -2296,7 +2840,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>120</v>
       </c>
@@ -2410,17 +2954,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>76</v>
@@ -2443,9 +2987,7 @@
       <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>77</v>
@@ -2482,19 +3024,17 @@
         <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -2506,10 +3046,10 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>77</v>
@@ -2526,43 +3066,41 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2610,7 +3148,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -2619,13 +3157,13 @@
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>77</v>
@@ -2642,27 +3180,29 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>142</v>
@@ -2671,12 +3211,10 @@
         <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M11" s="2"/>
-      <c r="N11" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2724,7 +3262,7 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -2733,41 +3271,41 @@
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>77</v>
@@ -2776,29 +3314,27 @@
         <v>85</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P12" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2848,22 +3384,22 @@
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -2872,9 +3408,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2897,19 +3433,17 @@
         <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>77</v>
@@ -2958,7 +3492,7 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -2973,16 +3507,16 @@
         <v>96</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -2990,7 +3524,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2998,39 +3532,41 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="Q14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3074,13 +3610,13 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>77</v>
@@ -3089,24 +3625,24 @@
         <v>96</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3114,13 +3650,13 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -3129,19 +3665,19 @@
         <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3166,37 +3702,37 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>77</v>
@@ -3205,16 +3741,16 @@
         <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3222,21 +3758,23 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -3245,19 +3783,19 @@
         <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3306,13 +3844,13 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>77</v>
@@ -3321,24 +3859,24 @@
         <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3355,26 +3893,22 @@
         <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3422,7 +3956,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3434,31 +3968,31 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3474,23 +4008,21 @@
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3526,19 +4058,19 @@
         <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3550,19 +4082,19 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3570,7 +4102,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3578,32 +4110,34 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>217</v>
+        <v>104</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="N19" t="s" s="2">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -3613,7 +4147,7 @@
         <v>77</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>77</v>
@@ -3628,13 +4162,13 @@
         <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>77</v>
@@ -3652,7 +4186,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3667,24 +4201,24 @@
         <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3704,22 +4238,22 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>228</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -3768,7 +4302,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3783,16 +4317,16 @@
         <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3800,43 +4334,41 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>236</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
@@ -3884,13 +4416,13 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>77</v>
@@ -3899,16 +4431,16 @@
         <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -3916,43 +4448,41 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>244</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4000,7 +4530,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4012,27 +4542,27 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>249</v>
+        <v>96</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4043,7 +4573,7 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -4052,16 +4582,16 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4112,22 +4642,22 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>158</v>
+        <v>232</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
@@ -4136,19 +4666,19 @@
         <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4164,20 +4694,18 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -4226,7 +4754,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4238,10 +4766,10 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
@@ -4250,50 +4778,48 @@
         <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>130</v>
+        <v>241</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>139</v>
+        <v>244</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4342,22 +4868,22 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>77</v>
@@ -4366,7 +4892,7 @@
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4374,9 +4900,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4388,26 +4916,28 @@
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>264</v>
+        <v>172</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="N26" t="s" s="2">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4432,13 +4962,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4456,7 +4986,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4471,24 +5001,24 @@
         <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>269</v>
+        <v>179</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>183</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4511,18 +5041,16 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>272</v>
+        <v>184</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>273</v>
+        <v>185</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>274</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4570,7 +5098,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>271</v>
+        <v>186</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4582,31 +5110,31 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>187</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4625,20 +5153,18 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>277</v>
+        <v>188</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4674,19 +5200,19 @@
         <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>276</v>
+        <v>191</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4698,19 +5224,19 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4718,7 +5244,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>281</v>
+        <v>192</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4726,32 +5252,34 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>282</v>
+        <v>193</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="N29" t="s" s="2">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -4776,13 +5304,13 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -4800,7 +5328,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4815,24 +5343,24 @@
         <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>285</v>
+        <v>203</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>204</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4852,20 +5380,22 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="N30" t="s" s="2">
-        <v>288</v>
+        <v>208</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -4890,13 +5420,13 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>77</v>
@@ -4914,7 +5444,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>286</v>
+        <v>209</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4929,28 +5459,28 @@
         <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>289</v>
+        <v>211</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>212</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4966,21 +5496,21 @@
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>291</v>
+        <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>292</v>
+        <v>214</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5028,7 +5558,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>290</v>
+        <v>217</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5037,41 +5567,41 @@
         <v>84</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>296</v>
+        <v>218</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -5080,18 +5610,20 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>299</v>
+        <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5140,13 +5672,13 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>298</v>
+        <v>225</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>77</v>
@@ -5155,24 +5687,24 @@
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>302</v>
+        <v>226</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>303</v>
+        <v>228</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5192,23 +5724,19 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>244</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>304</v>
+        <v>229</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5256,7 +5784,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>303</v>
+        <v>231</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5271,24 +5799,24 @@
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5299,7 +5827,7 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5308,16 +5836,16 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5368,22 +5896,22 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -5392,26 +5920,26 @@
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>240</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>77</v>
@@ -5420,21 +5948,21 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>130</v>
+        <v>241</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5482,22 +6010,22 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>158</v>
+        <v>246</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
@@ -5506,19 +6034,19 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>249</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5531,25 +6059,25 @@
         <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>133</v>
+        <v>253</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>139</v>
+        <v>254</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
@@ -5598,7 +6126,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5610,19 +6138,19 @@
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>127</v>
+        <v>255</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5630,7 +6158,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>313</v>
+        <v>258</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5644,28 +6172,28 @@
         <v>84</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>217</v>
+        <v>104</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>315</v>
+        <v>260</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>77</v>
@@ -5690,13 +6218,13 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>110</v>
+        <v>264</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -5714,10 +6242,10 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>313</v>
+        <v>258</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>84</v>
@@ -5729,16 +6257,16 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -5746,7 +6274,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5754,34 +6282,34 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>151</v>
+        <v>269</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>322</v>
+        <v>270</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>323</v>
+        <v>271</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>325</v>
+        <v>273</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -5830,7 +6358,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5845,58 +6373,60 @@
         <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>328</v>
+        <v>276</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>332</v>
+        <v>280</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>333</v>
+        <v>281</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
       </c>
@@ -5944,13 +6474,13 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>77</v>
@@ -5959,16 +6489,16 @@
         <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>335</v>
+        <v>284</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -5976,7 +6506,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5984,13 +6514,13 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -5999,19 +6529,19 @@
         <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6060,13 +6590,13 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
@@ -6075,24 +6605,24 @@
         <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6103,32 +6633,28 @@
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>244</v>
+        <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>344</v>
+        <v>184</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6176,25 +6702,25 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>343</v>
+        <v>186</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>348</v>
+        <v>168</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6206,20 +6732,20 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
@@ -6231,15 +6757,17 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6276,34 +6804,34 @@
         <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
@@ -6320,41 +6848,43 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>131</v>
+        <v>298</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6366,7 +6896,7 @@
         <v>77</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>77</v>
@@ -6378,13 +6908,13 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6402,22 +6932,22 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6426,51 +6956,49 @@
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>351</v>
+        <v>307</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6482,7 +7010,7 @@
         <v>77</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>77</v>
@@ -6494,13 +7022,13 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -6518,22 +7046,22 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
@@ -6542,15 +7070,15 @@
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6558,7 +7086,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>84</v>
@@ -6573,18 +7101,20 @@
         <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>353</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6596,7 +7126,7 @@
         <v>77</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>77</v>
@@ -6632,10 +7162,10 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>84</v>
@@ -6647,24 +7177,24 @@
         <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6672,10 +7202,10 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -6687,13 +7217,13 @@
         <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6708,7 +7238,7 @@
         <v>77</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>77</v>
@@ -6720,13 +7250,13 @@
         <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>77</v>
@@ -6744,13 +7274,13 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
@@ -6759,22 +7289,4820 @@
         <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AB51" s="2"/>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AK46" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN46" t="s" s="2">
+      <c r="L53" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AB57" s="2"/>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN88">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI87">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-vp-patient.xlsx
+++ b/StructureDefinition-vp-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:42:55+00:00</t>
+    <t>2022-08-10T21:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-patient.xlsx
+++ b/StructureDefinition-vp-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T21:41:07+00:00</t>
+    <t>2022-08-11T05:51:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1135,7 +1135,7 @@
 </t>
   </si>
   <si>
-    <t>VPStateCodeExtension</t>
+    <t>StateCodeExtension</t>
   </si>
   <si>
     <t>Patient.address.state.value</t>
@@ -1209,7 +1209,7 @@
 </t>
   </si>
   <si>
-    <t>VPCountryCodeExtension</t>
+    <t>CountryCodeExtension</t>
   </si>
   <si>
     <t>Patient.address.country.value</t>

--- a/StructureDefinition-vp-patient.xlsx
+++ b/StructureDefinition-vp-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T05:51:10+00:00</t>
+    <t>2022-08-11T13:02:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-patient.xlsx
+++ b/StructureDefinition-vp-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T13:02:01+00:00</t>
+    <t>2022-08-11T13:55:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-patient.xlsx
+++ b/StructureDefinition-vp-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T13:55:21+00:00</t>
+    <t>2022-08-12T19:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-patient.xlsx
+++ b/StructureDefinition-vp-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T19:53:56+00:00</t>
+    <t>2022-08-13T11:44:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-patient.xlsx
+++ b/StructureDefinition-vp-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-13T11:44:57+00:00</t>
+    <t>2022-08-23T12:16:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
